--- a/biology/Médecine/Annales_médico-psychologiques/Annales_médico-psychologiques.xlsx
+++ b/biology/Médecine/Annales_médico-psychologiques/Annales_médico-psychologiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Annales_m%C3%A9dico-psychologiques</t>
+          <t>Annales_médico-psychologiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Annales médico-psychologiques est une revue scientifique francophone, paraissant dix fois par an et consacrée à la psychiatrie et à la psychopathologie. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Annales_m%C3%A9dico-psychologiques</t>
+          <t>Annales_médico-psychologiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La revue des Annales médico-psychologiques a été fondée par Jules Baillarger, François Achille Longet, Jacques Joseph Moreau et Laurent Cerise. C’est la plus ancienne revue de psychiatrie toujours publiée. Le terme de « psychiatrie » n’étant pas encore usité, l’appellation de « médico-pychologique » réfère au Traité médico-philosophique de Philippe Pinel[1].
-Les Annales médico-psychologiques sont devenues, en 1852, le bulletin officiel de la Société médico-psychologique[2], créée quelques années plus tard seulement, à cause des événements de la révolution de 1848[1]. La Société Médico psychologique a célébré ses 170 ans en mai 2022, lors d'une séance exceptionnelle à l'Académie nationale de médecine[3][source insuffisante].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revue des Annales médico-psychologiques a été fondée par Jules Baillarger, François Achille Longet, Jacques Joseph Moreau et Laurent Cerise. C’est la plus ancienne revue de psychiatrie toujours publiée. Le terme de « psychiatrie » n’étant pas encore usité, l’appellation de « médico-pychologique » réfère au Traité médico-philosophique de Philippe Pinel.
+Les Annales médico-psychologiques sont devenues, en 1852, le bulletin officiel de la Société médico-psychologique, créée quelques années plus tard seulement, à cause des événements de la révolution de 1848. La Société Médico psychologique a célébré ses 170 ans en mai 2022, lors d'une séance exceptionnelle à l'Académie nationale de médecine[source insuffisante].
 Des mémoires originaux ainsi que les comptes rendus des communications présentées devant la Société médico-psychologique y sont publiés.
-La revue figure sur la liste AERES de psychologie[4] ainsi que sur les bases de données PsyInf, ERIH et JCR.
+La revue figure sur la liste AERES de psychologie ainsi que sur les bases de données PsyInf, ERIH et JCR.
 Elle est actuellement éditée par Elsevier.
 </t>
         </is>
